--- a/Component Map.xlsx
+++ b/Component Map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7user\Documents\RPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wtime\Documents\GitHub\Unity-RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>캐릭터 이동 / 회전</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>FreeCameraMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 옵션 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Options</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E4"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,6 +486,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Component Map.xlsx
+++ b/Component Map.xlsx
@@ -26,10 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
-    <t>캐릭터 이동 / 회전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컴포넌트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AIEnable이 false일 경우 입력을 받아 작동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고정 카메라 시점 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +75,14 @@
   </si>
   <si>
     <t>Options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIEnable이 false일 경우 PC, ture일 경우 NPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +428,7 @@
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -441,60 +441,60 @@
   <sheetData>
     <row r="1" spans="2:5" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
